--- a/data/bibliophilly_leaves-rotate.xlsx
+++ b/data/bibliophilly_leaves-rotate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emeryr/code/GIT/openn-genizah/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{932EAD00-FC05-F74C-9E04-F9E6BC5895B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA34E48-E384-1D44-BEF1-B9A86A2F93AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="3580" windowWidth="27240" windowHeight="16440" xr2:uid="{698982E7-1676-FB41-B160-0CB5BD371386}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="16440" xr2:uid="{698982E7-1676-FB41-B160-0CB5BD371386}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,23 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="230">
   <si>
     <t>Lewis E M 1:10</t>
   </si>
@@ -514,6 +520,210 @@
   </si>
   <si>
     <t>Italy|Italian|Missal|Liturgy|Fragment</t>
+  </si>
+  <si>
+    <t>Lewis E M 1:2</t>
+  </si>
+  <si>
+    <t>lewis_e_m_001_002</t>
+  </si>
+  <si>
+    <t>mcai010021.tif|mcai010022.tif|</t>
+  </si>
+  <si>
+    <t>Lewis E M 1.2 front|Lewis E M 1.2 reverse|</t>
+  </si>
+  <si>
+    <t>1400-1450</t>
+  </si>
+  <si>
+    <t>100 x 161 mm</t>
+  </si>
+  <si>
+    <t>Initials D, C, D, and F (from top to bottom) | The illumination has been attributed to the same hand that executed the decoration of the Piccolomini Gospels (New York Public Library Spencer Coll. MS 29), dated to c. 1420 or c. 1450. | These illuminated initials have been removed from the same manuscript. On the reverse are passages of text typically found in a breviary | A rubric in the uppermost cutting indicates that the text is part of the Office for the Vigil of St. Andrew.|</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Breviary</t>
+  </si>
+  <si>
+    <t>15th century|Italian|Breviary|Liturgy|Fragment</t>
+  </si>
+  <si>
+    <t>Lewis E M 1:3</t>
+  </si>
+  <si>
+    <t>lewis_e_m_001_003</t>
+  </si>
+  <si>
+    <t>mcai010031.tif|mcai010032.tif|</t>
+  </si>
+  <si>
+    <t>Lewis E M 1.3 front|Lewis E M 1.3 reverse|</t>
+  </si>
+  <si>
+    <t>52 x 141 mm</t>
+  </si>
+  <si>
+    <t>Initials S, D, and F | The illumination has been attributed to the same hand that executed the decoration of the Piccolomini Gospels (New York Public Library Spencer Coll. MS 29), dated to c. 1420 or c. 1450. | These illuminated initials have been removed from the same manuscript. On the reverse are passages of text typically found in a breviary.</t>
+  </si>
+  <si>
+    <t>15th century|Italian|Italy|Breviary|Liturgy|Fragment</t>
+  </si>
+  <si>
+    <t>Lewis E M 1:4</t>
+  </si>
+  <si>
+    <t>lewis_e_m_001_004</t>
+  </si>
+  <si>
+    <t>mcai010041.tif|mcai010042.tif|</t>
+  </si>
+  <si>
+    <t>Lewis E M 1.4 front|Lewis E M 1.4 reverse|</t>
+  </si>
+  <si>
+    <t>1450-1475</t>
+  </si>
+  <si>
+    <t>226 x 161 mm</t>
+  </si>
+  <si>
+    <t>Initial D | This cutting has been dated to ca. 1460. | This cutting originally belonged in an antiphonary. It begins the antiphon for the 1st Nocturn for the feast of St. Andrew.</t>
+  </si>
+  <si>
+    <t>Austria (northern)</t>
+  </si>
+  <si>
+    <t>Antiphonary</t>
+  </si>
+  <si>
+    <t>Antiphonary|15th century|Austria|Austrian|Liturgy|Fragment</t>
+  </si>
+  <si>
+    <t>Lewis E M 1:5</t>
+  </si>
+  <si>
+    <t>lewis_e_m_001_005</t>
+  </si>
+  <si>
+    <t>mcai010051.tif|mcai010052.tif|</t>
+  </si>
+  <si>
+    <t>Lewis E M 1.5 front|Lewis E M 1.5 reverse|</t>
+  </si>
+  <si>
+    <t>46 x 134 mm</t>
+  </si>
+  <si>
+    <t>Initials E, D, and D | Rubrics on the reverse of these cuttings indicate that they were originally part of a breviary.</t>
+  </si>
+  <si>
+    <t>15th century|Breviary|Italian|Italy|Liturgy|Fragment</t>
+  </si>
+  <si>
+    <t>Lewis E M 1:6</t>
+  </si>
+  <si>
+    <t>lewis_e_m_001_006</t>
+  </si>
+  <si>
+    <t>mcai010061.tif|mcai010062.tif|</t>
+  </si>
+  <si>
+    <t>Lewis E M 1.6 front|Lewis E M 1.6 reverse|</t>
+  </si>
+  <si>
+    <t>122 x 167 mm</t>
+  </si>
+  <si>
+    <t>Initial C with Sts. Francis, Clare, and Mary Magdalene | The place in the liturgy from which this image derives is yet to be determined. On the reverse, the text has been erased, but is still perceptible.</t>
+  </si>
+  <si>
+    <t>Lewis E M 1:7</t>
+  </si>
+  <si>
+    <t>lewis_e_m_001_007</t>
+  </si>
+  <si>
+    <t>mcai010071.tif|mcai010072.tif|</t>
+  </si>
+  <si>
+    <t>Lewis E M 1.7 front|Lewis E M 1.7 reverse|</t>
+  </si>
+  <si>
+    <t>133 x 175 mm</t>
+  </si>
+  <si>
+    <t>Initial G | This cutting comes from a choir book, most likely an antiphonary or a gradual. The text has yet to be identified.</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Lewis E M 1:8</t>
+  </si>
+  <si>
+    <t>lewis_e_m_001_008</t>
+  </si>
+  <si>
+    <t>mcai010081.tif|mcai010082.tif|</t>
+  </si>
+  <si>
+    <t>Lewis E M 1.8  front|Lewis E M 1.8 reverse|</t>
+  </si>
+  <si>
+    <t>1400-1415</t>
+  </si>
+  <si>
+    <t>110 x 86 mm</t>
+  </si>
+  <si>
+    <t>Initial L | This illuminated initial comes from a manuscript containing St. Augustine of Hippo's Enarrationes in Psalmos, or Commentary on the Psalms.|</t>
+  </si>
+  <si>
+    <t>Cursiva formata</t>
+  </si>
+  <si>
+    <t>Augustine of Hippo</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Enarrationes in psalmos (Expositions on the Psalms)</t>
+  </si>
+  <si>
+    <t>15th century|Psalter|Bible|Biblical|Commentary|Italian|Italy|Fragment</t>
+  </si>
+  <si>
+    <t>Lewis E M 1:9</t>
+  </si>
+  <si>
+    <t>lewis_e_m_001_009</t>
+  </si>
+  <si>
+    <t>mcai010091.tif|mcai010092.tif|</t>
+  </si>
+  <si>
+    <t>Lewis E M 1.9  front|Lewis E M 1.9 reverse|</t>
+  </si>
+  <si>
+    <t>1490-1510</t>
+  </si>
+  <si>
+    <t>130 x 170 mm</t>
+  </si>
+  <si>
+    <t>Initial D | This cutting can be dated to ca. 1500. | This illuminated initial begins the Introit for the first Sunday after Pentecost, 'Domine in tua misericordia speravi...' (Lord, I cast myself on thy mercy).|</t>
+  </si>
+  <si>
+    <t>Germany (southern)</t>
+  </si>
+  <si>
+    <t>15th century|16th century|Missal|Liturgy|Germany|German|Fragment</t>
   </si>
 </sst>
 </file>
@@ -4166,13 +4376,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980731BE-0CF3-B74B-AD59-6A26F559E63D}">
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD16"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -5352,6 +5565,595 @@
         <v>19</v>
       </c>
       <c r="AA16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17">
+        <v>1400</v>
+      </c>
+      <c r="M17">
+        <v>1450</v>
+      </c>
+      <c r="N17" t="s">
+        <v>167</v>
+      </c>
+      <c r="O17" t="s">
+        <v>168</v>
+      </c>
+      <c r="P17" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" t="s">
+        <v>169</v>
+      </c>
+      <c r="V17" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" t="s">
+        <v>16</v>
+      </c>
+      <c r="X17" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18">
+        <v>1400</v>
+      </c>
+      <c r="M18">
+        <v>1450</v>
+      </c>
+      <c r="N18" t="s">
+        <v>176</v>
+      </c>
+      <c r="O18" t="s">
+        <v>177</v>
+      </c>
+      <c r="P18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" t="s">
+        <v>169</v>
+      </c>
+      <c r="V18" t="s">
+        <v>15</v>
+      </c>
+      <c r="W18" t="s">
+        <v>16</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19">
+        <v>1450</v>
+      </c>
+      <c r="M19">
+        <v>1475</v>
+      </c>
+      <c r="N19" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" t="s">
+        <v>185</v>
+      </c>
+      <c r="P19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" t="s">
+        <v>186</v>
+      </c>
+      <c r="S19" t="s">
+        <v>14</v>
+      </c>
+      <c r="V19" t="s">
+        <v>15</v>
+      </c>
+      <c r="W19" t="s">
+        <v>16</v>
+      </c>
+      <c r="X19" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>1400</v>
+      </c>
+      <c r="M20">
+        <v>1499</v>
+      </c>
+      <c r="N20" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" t="s">
+        <v>194</v>
+      </c>
+      <c r="P20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" t="s">
+        <v>169</v>
+      </c>
+      <c r="S20" t="s">
+        <v>14</v>
+      </c>
+      <c r="V20" t="s">
+        <v>15</v>
+      </c>
+      <c r="W20" t="s">
+        <v>16</v>
+      </c>
+      <c r="X20" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21">
+        <v>1485</v>
+      </c>
+      <c r="M21">
+        <v>1499</v>
+      </c>
+      <c r="N21" t="s">
+        <v>200</v>
+      </c>
+      <c r="O21" t="s">
+        <v>201</v>
+      </c>
+      <c r="P21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" t="s">
+        <v>89</v>
+      </c>
+      <c r="V21" t="s">
+        <v>15</v>
+      </c>
+      <c r="W21" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22">
+        <v>1400</v>
+      </c>
+      <c r="M22">
+        <v>1499</v>
+      </c>
+      <c r="N22" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" t="s">
+        <v>207</v>
+      </c>
+      <c r="P22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" t="s">
+        <v>208</v>
+      </c>
+      <c r="S22" t="s">
+        <v>14</v>
+      </c>
+      <c r="V22" t="s">
+        <v>15</v>
+      </c>
+      <c r="W22" t="s">
+        <v>16</v>
+      </c>
+      <c r="X22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D23" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23">
+        <v>1400</v>
+      </c>
+      <c r="M23">
+        <v>1415</v>
+      </c>
+      <c r="N23" t="s">
+        <v>214</v>
+      </c>
+      <c r="O23" t="s">
+        <v>215</v>
+      </c>
+      <c r="P23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" t="s">
+        <v>169</v>
+      </c>
+      <c r="S23" t="s">
+        <v>216</v>
+      </c>
+      <c r="T23" t="s">
+        <v>217</v>
+      </c>
+      <c r="U23" t="s">
+        <v>218</v>
+      </c>
+      <c r="V23" t="s">
+        <v>15</v>
+      </c>
+      <c r="W23" t="s">
+        <v>16</v>
+      </c>
+      <c r="X23" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24">
+        <v>1490</v>
+      </c>
+      <c r="M24">
+        <v>1510</v>
+      </c>
+      <c r="N24" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24" t="s">
+        <v>227</v>
+      </c>
+      <c r="P24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" t="s">
+        <v>228</v>
+      </c>
+      <c r="S24" t="s">
+        <v>14</v>
+      </c>
+      <c r="V24" t="s">
+        <v>15</v>
+      </c>
+      <c r="W24" t="s">
+        <v>16</v>
+      </c>
+      <c r="X24" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA24" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5359,6 +6161,9 @@
   <hyperlinks>
     <hyperlink ref="AA2:AA12" r:id="rId1" display="dexample@example.com|dorp@upenn.edu" xr:uid="{5656337A-8920-3D40-A261-B692B0F9D6F4}"/>
     <hyperlink ref="AA13:AA16" r:id="rId2" display="dexample@example.com|dorp@upenn.edu" xr:uid="{3D87B9EC-169A-D244-9373-F2C6E52E6A50}"/>
+    <hyperlink ref="AA17" r:id="rId3" xr:uid="{96787093-17F4-6242-A7DD-646913CBBBCB}"/>
+    <hyperlink ref="AA18:AA23" r:id="rId4" display="dexample@example.com|dorp@upenn.edu" xr:uid="{3C5070E9-0CF5-AE4B-8155-CD4B2A07E81E}"/>
+    <hyperlink ref="AA24" r:id="rId5" xr:uid="{88F0133E-2F2D-B540-A439-8E8DDE693036}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
